--- a/Multimedia/Printable_version.xlsx
+++ b/Multimedia/Printable_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaqu\OneDrive\Escritorio\702 Modeling and Representation of Data\Modeling_final_project\Multimedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7ACF619-4F43-49B2-9F0C-50F4C0E214B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C09929CC-58CA-4257-A87F-322DCEE3AA81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{82E5750E-FA80-450D-9A9D-9EBCFB998A42}"/>
   </bookViews>
@@ -91,10 +91,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9F845A2-E790-45C7-9937-D73BE9792B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8CD95B-9740-4FE5-8575-4464C207DE1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
